--- a/CHAPTER-04+VLOOKUP(EX).xlsx
+++ b/CHAPTER-04+VLOOKUP(EX).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UDAMY - EXCEL ADVANCE FORMULAS AND FUNCTIONS\ALL CHAPTER WITHOUT ANSWERS\CHAPTER-04 - AUTOSUM , VLOOKUP ,HLOOKUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\STUDENT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87640F-C0F8-4468-9197-350EE27DA5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP(EX) " sheetId="1" r:id="rId1"/>
@@ -48,7 +49,7 @@
     <definedName name="x" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="xxxxxxxxxxxxxxxxxxx" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>KARTHIK</t>
   </si>
@@ -150,10 +151,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -256,13 +257,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1712,14 +1713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1799,9 @@
       <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1829,7 +1832,10 @@
       <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="str">
+        <f>VLOOKUP($K$3,B3:H12,2,FALSE)</f>
+        <v>ASKER</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1860,7 +1866,10 @@
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <f>VLOOKUP(K3,B3:H12,3,FALSE)</f>
+        <v>4020</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1891,7 +1900,10 @@
       <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <f>VLOOKUP($K$3,$B$3:$H$12,4,FALSE)</f>
+        <v>4080</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1922,7 +1934,10 @@
       <c r="J7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <f>VLOOKUP($K$3,$B$3:$H$12,5,FALSE)</f>
+        <v>4100</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1953,7 +1968,10 @@
       <c r="J8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <f>VLOOKUP($K$3,$B$3:$H$12,6,FALSE)</f>
+        <v>4110</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1984,7 +2002,10 @@
       <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <f>VLOOKUP($K$3,$B$3:$H$12,7,FALSE)</f>
+        <v>16310</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
